--- a/conceptual model.xlsx
+++ b/conceptual model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="8700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Attributs!$A$1:$C$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concepts!$A$1:$B$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Relations!$A$1:$F$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Relations!$A$1:$F$207</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="311">
   <si>
     <t>Process</t>
   </si>
@@ -948,6 +948,24 @@
   </si>
   <si>
     <t>BPMN concept?</t>
+  </si>
+  <si>
+    <t>UnderspecifiedExpression</t>
+  </si>
+  <si>
+    <t>WorkProcedureDescription</t>
+  </si>
+  <si>
+    <t>has_member</t>
+  </si>
+  <si>
+    <t>has_leader</t>
+  </si>
+  <si>
+    <t>has_defaultSource</t>
+  </si>
+  <si>
+    <t>Activity or ExclusiveGateway or InclusiveGateway or ComplexGateway</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1003,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,6 +1031,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1082,6 +1118,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,822 +1426,851 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B72" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B90" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B95" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="22" t="s">
         <v>288</v>
       </c>
+      <c r="B100" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="22" t="s">
         <v>261</v>
       </c>
+      <c r="B101" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="22" t="s">
         <v>289</v>
       </c>
+      <c r="B102" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="22" t="s">
         <v>292</v>
       </c>
+      <c r="B103" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="22" t="s">
         <v>293</v>
       </c>
+      <c r="B104" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="22" t="s">
         <v>294</v>
       </c>
+      <c r="B105" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="22" t="s">
         <v>286</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3046,16 +3118,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A164" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="7"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -3098,7 +3170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3109,7 +3181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3171,7 +3243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3202,7 +3274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3325,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3355,7 +3427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3366,7 +3438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3377,7 +3449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3388,7 +3460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3399,7 +3471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3450,7 +3522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3481,7 +3553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3533,7 +3605,7 @@
         <v>has_activityLoopCharacteristics</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3544,7 +3616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3555,7 +3627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3566,7 +3638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3714,7 +3786,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -3731,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>90</v>
       </c>
@@ -3742,7 +3814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>91</v>
       </c>
@@ -3753,7 +3825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>92</v>
       </c>
@@ -3764,7 +3836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>93</v>
       </c>
@@ -3775,7 +3847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
@@ -3786,7 +3858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>95</v>
       </c>
@@ -3797,7 +3869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>96</v>
       </c>
@@ -3961,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>114</v>
       </c>
@@ -3972,7 +4044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>115</v>
       </c>
@@ -4356,7 +4428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -4367,7 +4439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>146</v>
       </c>
@@ -4378,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>147</v>
       </c>
@@ -4389,7 +4461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>148</v>
       </c>
@@ -4400,7 +4472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>149</v>
       </c>
@@ -4452,7 +4524,7 @@
         <v>has_globalUserTaskRenderings</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>66</v>
       </c>
@@ -4599,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -4812,7 +4884,7 @@
         <v>has_eventProperties</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -4823,7 +4895,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -4834,7 +4906,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>190</v>
       </c>
@@ -4845,7 +4917,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>188</v>
       </c>
@@ -4856,7 +4928,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -4901,7 +4973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>198</v>
       </c>
@@ -4912,7 +4984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>199</v>
       </c>
@@ -4923,7 +4995,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>200</v>
       </c>
@@ -4934,7 +5006,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>201</v>
       </c>
@@ -4945,7 +5017,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>202</v>
       </c>
@@ -4956,7 +5028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>203</v>
       </c>
@@ -4967,7 +5039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>204</v>
       </c>
@@ -4978,7 +5050,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>205</v>
       </c>
@@ -4989,7 +5061,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>206</v>
       </c>
@@ -5000,7 +5072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>207</v>
       </c>
@@ -5235,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>224</v>
       </c>
@@ -5252,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>225</v>
       </c>
@@ -5269,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>227</v>
       </c>
@@ -5303,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>224</v>
       </c>
@@ -5314,7 +5386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>225</v>
       </c>
@@ -5325,7 +5397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>226</v>
       </c>
@@ -5336,7 +5408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>227</v>
       </c>
@@ -5347,7 +5419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>228</v>
       </c>
@@ -5426,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>240</v>
       </c>
@@ -5437,7 +5509,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>237</v>
       </c>
@@ -5448,7 +5520,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>236</v>
       </c>
@@ -5459,7 +5531,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>238</v>
       </c>
@@ -5470,7 +5542,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>241</v>
       </c>
@@ -5525,7 +5597,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>178</v>
       </c>
@@ -5536,7 +5608,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>245</v>
       </c>
@@ -5547,7 +5619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>246</v>
       </c>
@@ -5558,7 +5630,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>247</v>
       </c>
@@ -5569,7 +5641,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>248</v>
       </c>
@@ -5580,7 +5652,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>249</v>
       </c>
@@ -5591,7 +5663,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>250</v>
       </c>
@@ -5602,7 +5674,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>260</v>
       </c>
@@ -5613,7 +5685,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>261</v>
       </c>
@@ -5624,7 +5696,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>251</v>
       </c>
@@ -5635,7 +5707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>252</v>
       </c>
@@ -5646,7 +5718,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>253</v>
       </c>
@@ -5657,7 +5729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>254</v>
       </c>
@@ -5668,7 +5740,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>255</v>
       </c>
@@ -5679,7 +5751,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>256</v>
       </c>
@@ -5690,7 +5762,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>257</v>
       </c>
@@ -5701,7 +5773,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>258</v>
       </c>
@@ -5712,7 +5784,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>259</v>
       </c>
@@ -5767,7 +5839,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>267</v>
       </c>
@@ -5778,7 +5850,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>268</v>
       </c>
@@ -5975,7 +6047,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>292</v>
       </c>
@@ -5986,7 +6058,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>293</v>
       </c>
@@ -6104,7 +6176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>303</v>
       </c>
@@ -6115,11 +6187,62 @@
         <v>288</v>
       </c>
     </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B208" t="s">
+        <v>307</v>
+      </c>
+      <c r="C208" t="s">
+        <v>267</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209" t="s">
+        <v>308</v>
+      </c>
+      <c r="C209" t="s">
+        <v>267</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" t="s">
+        <v>309</v>
+      </c>
+      <c r="C210" t="s">
+        <v>310</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F206">
+  <autoFilter ref="A1:F207">
     <filterColumn colId="1">
       <filters>
-        <filter val="isA"/>
+        <filter val="has_default"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/conceptual model.xlsx
+++ b/conceptual model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="8700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="8700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Attributs!$A$1:$C$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concepts!$A$1:$B$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Relations!$A$1:$G$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Relations!$A$1:$H$210</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="317">
   <si>
     <t>Process</t>
   </si>
@@ -963,6 +963,27 @@
   </si>
   <si>
     <t>has_interfaceOperation</t>
+  </si>
+  <si>
+    <t>numberOfInstances</t>
+  </si>
+  <si>
+    <t>numberOfActiveInstances</t>
+  </si>
+  <si>
+    <t>numberOfCompletedInstances</t>
+  </si>
+  <si>
+    <t>loopCounter</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Process or Activity</t>
+  </si>
+  <si>
+    <t>is_attachedToRef</t>
   </si>
 </sst>
 </file>
@@ -1119,16 +1140,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2281,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,6 +3015,50 @@
       </c>
       <c r="C65" s="2"/>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,10 +3068,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H212"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,28 +3109,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>257</v>
       </c>
@@ -3094,7 +3153,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>283</v>
       </c>
@@ -3107,9 +3166,14 @@
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>247</v>
       </c>
@@ -3122,9 +3186,14 @@
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>247</v>
       </c>
@@ -3137,72 +3206,77 @@
       <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>72</v>
       </c>
@@ -3225,7 +3299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
@@ -3246,7 +3320,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>80</v>
       </c>
@@ -3270,69 +3344,72 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>161</v>
       </c>
@@ -3352,94 +3429,90 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="21">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="E20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="21">
         <v>1</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>182</v>
       </c>
@@ -3460,7 +3533,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>183</v>
       </c>
@@ -3480,38 +3553,41 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>81</v>
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24" s="14">
         <v>0</v>
@@ -3519,13 +3595,14 @@
       <c r="F24" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>81</v>
@@ -3540,161 +3617,165 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14" t="str">
+        <f>A28</f>
+        <v>has_escalationRef</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B30" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="21">
+        <v>1</v>
+      </c>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="14">
-        <v>1</v>
-      </c>
-      <c r="F27" s="21">
-        <v>1</v>
-      </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
-        <v>1</v>
-      </c>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0</v>
-      </c>
-      <c r="F30" s="21">
-        <v>1</v>
-      </c>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0</v>
-      </c>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>203</v>
-      </c>
       <c r="E32" s="14">
         <v>0</v>
       </c>
       <c r="F32" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" t="s">
-        <v>209</v>
+        <v>296</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E33" s="14">
         <v>0</v>
@@ -3702,19 +3783,20 @@
       <c r="F33" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" t="s">
-        <v>163</v>
+        <v>17</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="E34" s="14">
         <v>0</v>
@@ -3722,8 +3804,11 @@
       <c r="F34" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>300</v>
       </c>
@@ -3744,21 +3829,21 @@
       </c>
       <c r="G35" s="14" t="str">
         <f>A36</f>
-        <v>has_eventDefinitionEvent</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>has_expressionElement</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>143</v>
+        <v>296</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="E36" s="14">
         <v>0</v>
@@ -3766,65 +3851,66 @@
       <c r="F36" s="21">
         <v>1</v>
       </c>
-      <c r="G36" s="14" t="str">
-        <f>A35</f>
-        <v>has_eventDefinition</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>1</v>
-      </c>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>296</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="E38" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="21">
         <v>1</v>
       </c>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>296</v>
+        <v>253</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="E39" s="14">
         <v>0</v>
@@ -3832,20 +3918,19 @@
       <c r="F39" s="21">
         <v>1</v>
       </c>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>17</v>
+        <v>81</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E40" s="14">
         <v>0</v>
@@ -3853,34 +3938,28 @@
       <c r="F40" s="21">
         <v>1</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0</v>
-      </c>
-      <c r="F41" s="21">
-        <v>1</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>307</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>36</v>
       </c>
@@ -3903,7 +3982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>305</v>
       </c>
@@ -3926,7 +4005,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>295</v>
       </c>
@@ -3947,7 +4026,7 @@
       </c>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>42</v>
       </c>
@@ -3970,18 +4049,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>94</v>
+        <v>121</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E46" s="14">
         <v>1</v>
@@ -3990,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>309</v>
       </c>
@@ -4013,15 +4092,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>112</v>
@@ -4033,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>298</v>
       </c>
@@ -4053,7 +4132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>123</v>
       </c>
@@ -4073,175 +4152,172 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1</v>
+      </c>
+      <c r="F51" s="21">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="14">
-        <v>1</v>
-      </c>
-      <c r="F51" s="21">
-        <v>1</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0</v>
-      </c>
-      <c r="F52" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="14">
-        <v>0</v>
-      </c>
-      <c r="F53" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="14">
-        <v>1</v>
-      </c>
-      <c r="F54" s="21">
-        <v>1</v>
-      </c>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="14">
-        <v>1</v>
-      </c>
-      <c r="F55" s="21">
-        <v>1</v>
-      </c>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>229</v>
-      </c>
       <c r="E56" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E57" s="14">
-        <v>0</v>
-      </c>
-      <c r="F57" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>60</v>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0</v>
+      </c>
+      <c r="F57" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="14">
-        <v>0</v>
-      </c>
-      <c r="F58" s="21">
-        <v>1</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>148</v>
       </c>
@@ -4261,18 +4337,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>147</v>
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="E60" s="14">
         <v>0</v>
@@ -4281,15 +4357,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>144</v>
@@ -4301,18 +4377,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62" s="14">
         <v>0</v>
@@ -4321,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>303</v>
       </c>
@@ -4341,90 +4417,88 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D64" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="14">
-        <v>0</v>
-      </c>
-      <c r="F64" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="14">
-        <v>0</v>
-      </c>
-      <c r="F65" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="14">
-        <v>0</v>
-      </c>
-      <c r="F66" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="E67" s="14">
         <v>1</v>
       </c>
       <c r="F67" s="21">
         <v>1</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>285</v>
       </c>
@@ -4444,38 +4518,41 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="E69" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E70" s="14">
         <v>0</v>
@@ -4484,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>129</v>
       </c>
@@ -4504,61 +4581,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E72" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="21">
         <v>1</v>
       </c>
+      <c r="G72" s="14"/>
       <c r="H72" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="E73" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="E74" s="14">
         <v>0</v>
@@ -4567,18 +4645,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>190</v>
+        <v>280</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="E75" s="14">
         <v>0</v>
@@ -4587,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>41</v>
       </c>
@@ -4610,27 +4688,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>93</v>
+        <v>260</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E77" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -4643,19 +4721,25 @@
       <c r="D78" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E78" s="14">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" t="s">
-        <v>122</v>
+        <v>48</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E79" s="14">
         <v>1</v>
@@ -4663,8 +4747,11 @@
       <c r="F79" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>299</v>
       </c>
@@ -4684,18 +4771,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" t="s">
-        <v>279</v>
+        <v>293</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="E81" s="14">
         <v>1</v>
@@ -4703,8 +4790,11 @@
       <c r="F81" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>279</v>
       </c>
@@ -4717,28 +4807,37 @@
       <c r="D82" s="14" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="14">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C83" t="s">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="E83" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>281</v>
       </c>
@@ -4751,19 +4850,25 @@
       <c r="D84" s="18" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="14">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="E85" s="14">
         <v>0</v>
@@ -4772,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>280</v>
       </c>
@@ -4785,8 +4890,14 @@
       <c r="D86" s="18" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="14">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>301</v>
       </c>
@@ -4806,7 +4917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>302</v>
       </c>
@@ -4826,7 +4937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>286</v>
       </c>
@@ -4846,7 +4957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>294</v>
       </c>
@@ -4869,7 +4980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>294</v>
       </c>
@@ -4892,7 +5003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>294</v>
       </c>
@@ -4915,87 +5026,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>293</v>
+        <v>98</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>98</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E93" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="21">
         <v>1</v>
       </c>
-      <c r="G93" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>293</v>
+        <v>306</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="E94" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="21">
         <v>1</v>
       </c>
-      <c r="G94" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>293</v>
+        <v>306</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E95" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="21">
         <v>1</v>
       </c>
-      <c r="G95" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>100</v>
+        <v>166</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E96" s="14">
         <v>0</v>
@@ -5004,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>305</v>
       </c>
@@ -5027,7 +5129,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>118</v>
       </c>
@@ -5047,7 +5149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>115</v>
       </c>
@@ -5067,7 +5169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>119</v>
       </c>
@@ -5088,7 +5190,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>116</v>
       </c>
@@ -5108,7 +5210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>194</v>
       </c>
@@ -5128,41 +5230,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>39</v>
+        <v>99</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E103" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" s="21">
         <v>1</v>
       </c>
-      <c r="G103" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E104" s="14">
         <v>0</v>
@@ -5171,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>262</v>
       </c>
@@ -5191,18 +5290,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" t="s">
-        <v>261</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>229</v>
+        <v>43</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E106" s="14">
         <v>0</v>
@@ -5210,24 +5309,43 @@
       <c r="F106" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="14">
+        <v>1</v>
+      </c>
+      <c r="F107" s="21">
+        <v>1</v>
+      </c>
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C108" t="s">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E108" s="14">
         <v>0</v>
@@ -5236,192 +5354,210 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="14">
+        <v>0</v>
+      </c>
+      <c r="F109" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E110" s="14">
+        <v>0</v>
+      </c>
+      <c r="F110" s="21">
+        <v>1</v>
+      </c>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="14">
+        <v>1</v>
+      </c>
+      <c r="F111" s="21">
+        <v>1</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B112" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C112" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D112" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="14">
-        <v>1</v>
-      </c>
-      <c r="F109" s="21">
-        <v>1</v>
-      </c>
-      <c r="G109" s="14" t="s">
+      <c r="E112" s="14">
+        <v>1</v>
+      </c>
+      <c r="F112" s="21">
+        <v>1</v>
+      </c>
+      <c r="G112" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D110" s="14" t="s">
+    <row r="113" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="14">
+        <v>1</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="14">
+        <v>0</v>
+      </c>
+      <c r="F115" s="21">
+        <v>1</v>
+      </c>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0</v>
+      </c>
+      <c r="F116" s="10">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D117" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E110" s="14">
-        <v>0</v>
-      </c>
-      <c r="F110" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="14">
-        <v>0</v>
-      </c>
-      <c r="F111" s="21">
-        <v>1</v>
-      </c>
-      <c r="G111"/>
-    </row>
-    <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="14">
-        <v>0</v>
-      </c>
-      <c r="F112" s="21">
-        <v>1</v>
-      </c>
-      <c r="G112"/>
-    </row>
-    <row r="113" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" t="s">
-        <v>102</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E113" s="14">
-        <v>0</v>
-      </c>
-      <c r="F113" s="21">
-        <v>1</v>
-      </c>
-      <c r="G113"/>
-    </row>
-    <row r="114" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114" s="6"/>
-      <c r="G114"/>
-    </row>
-    <row r="115" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="10">
-        <v>1</v>
-      </c>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E117" s="14">
+        <v>0</v>
+      </c>
+      <c r="F117" s="21">
+        <v>1</v>
+      </c>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>228</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E118" s="9">
         <v>0</v>
@@ -5431,173 +5567,165 @@
       </c>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>224</v>
+        <v>34</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119" s="10">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>227</v>
+        <v>34</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="10">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="10"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="10"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="10"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="10"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="10"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="10"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>34</v>
@@ -5609,46 +5737,46 @@
       <c r="F128" s="10"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="10"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>34</v>
@@ -5660,131 +5788,131 @@
       <c r="F131" s="10"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="10"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="10"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="10"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="10"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="10"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>64</v>
+      <c r="B138" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="10"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>34</v>
@@ -5796,12 +5924,12 @@
       <c r="F139" s="10"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>34</v>
@@ -5813,12 +5941,12 @@
       <c r="F140" s="10"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>34</v>
@@ -5830,12 +5958,12 @@
       <c r="F141" s="10"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>34</v>
@@ -5847,12 +5975,12 @@
       <c r="F142" s="10"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>34</v>
@@ -5864,97 +5992,97 @@
       <c r="F143" s="10"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="10"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="10"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>103</v>
+      <c r="B146" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="10"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="10"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>95</v>
+      <c r="B148" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="10"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>34</v>
@@ -5966,12 +6094,12 @@
       <c r="F149" s="10"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>34</v>
@@ -5983,80 +6111,80 @@
       <c r="F150" s="10"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>137</v>
+      <c r="B151" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>135</v>
+      <c r="B152" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="10"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="10"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="10"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>34</v>
@@ -6068,80 +6196,80 @@
       <c r="F155" s="10"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="10"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="10"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>174</v>
+      <c r="B158" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="10"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>173</v>
+      <c r="B159" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="10"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>34</v>
@@ -6153,12 +6281,12 @@
       <c r="F160" s="10"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>34</v>
@@ -6170,12 +6298,12 @@
       <c r="F161" s="10"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>34</v>
@@ -6187,12 +6315,12 @@
       <c r="F162" s="10"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>34</v>
@@ -6204,12 +6332,12 @@
       <c r="F163" s="10"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>34</v>
@@ -6221,12 +6349,12 @@
       <c r="F164" s="10"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>34</v>
@@ -6238,12 +6366,12 @@
       <c r="F165" s="10"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>34</v>
@@ -6255,12 +6383,12 @@
       <c r="F166" s="10"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>34</v>
@@ -6272,46 +6400,46 @@
       <c r="F167" s="10"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="10"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>34</v>
@@ -6323,12 +6451,12 @@
       <c r="F170" s="10"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>34</v>
@@ -6340,12 +6468,12 @@
       <c r="F171" s="10"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>34</v>
@@ -6357,46 +6485,46 @@
       <c r="F172" s="10"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>16</v>
+      <c r="D173" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="10"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>16</v>
+      <c r="D174" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="10"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>34</v>
@@ -6408,12 +6536,12 @@
       <c r="F175" s="10"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>34</v>
@@ -6425,12 +6553,12 @@
       <c r="F176" s="10"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>34</v>
@@ -6442,46 +6570,46 @@
       <c r="F177" s="10"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="10"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="10"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>34</v>
@@ -6493,12 +6621,12 @@
       <c r="F180" s="10"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>34</v>
@@ -6510,12 +6638,12 @@
       <c r="F181" s="10"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>34</v>
@@ -6527,46 +6655,46 @@
       <c r="F182" s="10"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="10"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="10"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>34</v>
@@ -6578,46 +6706,46 @@
       <c r="F185" s="10"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="10"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="10"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>34</v>
@@ -6629,46 +6757,46 @@
       <c r="F188" s="10"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="10"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="10"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>34</v>
@@ -6680,12 +6808,12 @@
       <c r="F191" s="10"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>34</v>
@@ -6697,12 +6825,12 @@
       <c r="F192" s="10"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>34</v>
@@ -6714,12 +6842,12 @@
       <c r="F193" s="10"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>34</v>
@@ -6731,80 +6859,80 @@
       <c r="F194" s="10"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="10"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="10"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="7" t="s">
-        <v>231</v>
+      <c r="D197" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="10"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D198" s="7" t="s">
-        <v>231</v>
+      <c r="D198" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="10"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>34</v>
@@ -6816,107 +6944,113 @@
       <c r="F199" s="10"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E200" s="9"/>
-      <c r="F200" s="10"/>
+        <v>269</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E200" s="9">
+        <v>0</v>
+      </c>
+      <c r="F200" s="10">
+        <v>1</v>
+      </c>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>34</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C201" s="9"/>
       <c r="D201" s="9" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="10"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>65</v>
+        <v>249</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D202" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E202" s="9"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="9"/>
+    </row>
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E202" s="9">
-        <v>1</v>
-      </c>
-      <c r="F202" s="10">
-        <v>1</v>
-      </c>
-      <c r="G202" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E203" s="9"/>
-      <c r="F203" s="10"/>
+      <c r="E203" s="9">
+        <v>0</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E204" s="9"/>
-      <c r="F204" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="E204" s="9">
+        <v>0</v>
+      </c>
+      <c r="F204" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="E205" s="9">
         <v>0</v>
@@ -6926,18 +7060,18 @@
       </c>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>230</v>
+        <v>32</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="E206" s="9">
         <v>0</v>
@@ -6947,137 +7081,94 @@
       </c>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E207" s="9">
         <v>0</v>
       </c>
-      <c r="F207" s="10" t="s">
-        <v>33</v>
+      <c r="F207" s="10">
+        <v>1</v>
       </c>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E208" s="9">
-        <v>0</v>
-      </c>
-      <c r="F208" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G208" s="9"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E209" s="9">
-        <v>0</v>
-      </c>
-      <c r="F209" s="10">
-        <v>1</v>
-      </c>
-      <c r="G209" s="9"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E210" s="9">
-        <v>0</v>
-      </c>
-      <c r="F210" s="10">
-        <v>1</v>
-      </c>
-      <c r="G210" s="9"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E211" s="9">
-        <v>0</v>
-      </c>
-      <c r="F211" s="10">
-        <v>1</v>
-      </c>
-      <c r="G211" s="9"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E212" s="9">
-        <v>0</v>
-      </c>
-      <c r="F212" s="10">
-        <v>1</v>
-      </c>
-      <c r="G212" s="9"/>
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="14">
+        <v>0</v>
+      </c>
+      <c r="F208" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="14">
+        <v>0</v>
+      </c>
+      <c r="F209" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="14">
+        <v>0</v>
+      </c>
+      <c r="F210" s="21">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G212">
-    <sortState ref="A3:G171">
-      <sortCondition sortBy="cellColor" ref="B1:B214" dxfId="0"/>
-    </sortState>
+  <autoFilter ref="A1:H210">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="isAttachedToRef"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/conceptual model.xlsx
+++ b/conceptual model.xlsx
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3068,11 +3068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,7 +3108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>141</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>257</v>
       </c>
@@ -3153,7 +3152,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>283</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>247</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>247</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>81</v>
       </c>
@@ -3234,7 +3233,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -3255,7 +3254,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>108</v>
       </c>
@@ -3276,7 +3275,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>72</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
@@ -3320,7 +3319,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>80</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>74</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>79</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>161</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>228</v>
       </c>
@@ -3450,7 +3449,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>196</v>
       </c>
@@ -3471,7 +3470,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>160</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>163</v>
       </c>
@@ -3512,7 +3511,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>182</v>
       </c>
@@ -3533,7 +3532,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>183</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>217</v>
       </c>
@@ -3597,7 +3596,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>81</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>160</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>208</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>209</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>308</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>has_escalationRef</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>81</v>
       </c>
@@ -3722,7 +3721,7 @@
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>296</v>
       </c>
@@ -3743,7 +3742,7 @@
       </c>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>296</v>
       </c>
@@ -3764,7 +3763,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>296</v>
       </c>
@@ -3785,7 +3784,7 @@
       </c>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>296</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>300</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>has_expressionElement</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>296</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>228</v>
       </c>
@@ -3876,7 +3875,7 @@
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>38</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>292</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>81</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>307</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>36</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>305</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>295</v>
       </c>
@@ -4026,7 +4025,7 @@
       </c>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>42</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>121</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>309</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>122</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>298</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>123</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>74</v>
       </c>
@@ -4173,7 +4172,7 @@
       </c>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>261</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>195</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>75</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>99</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>98</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>108</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>151</v>
       </c>
@@ -4317,7 +4316,7 @@
       </c>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>148</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>153</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>154</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>158</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>303</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>157</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>152</v>
       </c>
@@ -4458,7 +4457,7 @@
       </c>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>208</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>96</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>285</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>128</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>97</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>129</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>74</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>279</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>281</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>280</v>
       </c>
@@ -4665,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>41</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>260</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>293</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>299</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>293</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>279</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>293</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>281</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>99</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>280</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>301</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>302</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>286</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>294</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>294</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>294</v>
       </c>
@@ -5026,7 +5025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>98</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>306</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>306</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>166</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>305</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>118</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>115</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>119</v>
       </c>
@@ -5190,7 +5189,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>116</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>194</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>99</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>98</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>262</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>43</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>297</v>
       </c>
@@ -5334,7 +5333,7 @@
       </c>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>297</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>297</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>297</v>
       </c>
@@ -5395,7 +5394,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>39</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>40</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>250</v>
       </c>
@@ -5462,7 +5461,7 @@
       </c>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>268</v>
       </c>
@@ -5483,7 +5482,7 @@
       </c>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>98</v>
       </c>
@@ -5504,7 +5503,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>228</v>
       </c>
@@ -5525,7 +5524,7 @@
       </c>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>147</v>
       </c>
@@ -5546,7 +5545,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>228</v>
       </c>
@@ -5567,7 +5566,7 @@
       </c>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>34</v>
       </c>
@@ -5584,7 +5583,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5600,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>34</v>
       </c>
@@ -5618,7 +5617,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>34</v>
       </c>
@@ -5635,7 +5634,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>34</v>
       </c>
@@ -5652,7 +5651,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>34</v>
       </c>
@@ -5669,7 +5668,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>34</v>
       </c>
@@ -5686,7 +5685,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>34</v>
       </c>
@@ -5703,7 +5702,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>34</v>
       </c>
@@ -5720,7 +5719,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>34</v>
       </c>
@@ -5737,7 +5736,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>34</v>
       </c>
@@ -5754,7 +5753,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>34</v>
       </c>
@@ -5771,7 +5770,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>34</v>
       </c>
@@ -5788,7 +5787,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>34</v>
       </c>
@@ -5805,7 +5804,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>34</v>
       </c>
@@ -5822,7 +5821,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>34</v>
       </c>
@@ -5839,7 +5838,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>34</v>
       </c>
@@ -5856,7 +5855,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>34</v>
       </c>
@@ -5873,7 +5872,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>34</v>
       </c>
@@ -5890,7 +5889,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>34</v>
       </c>
@@ -5907,7 +5906,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>34</v>
       </c>
@@ -5924,7 +5923,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>34</v>
       </c>
@@ -5941,7 +5940,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>34</v>
       </c>
@@ -5958,7 +5957,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>34</v>
       </c>
@@ -5975,7 +5974,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>34</v>
       </c>
@@ -5992,7 +5991,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>34</v>
       </c>
@@ -6009,7 +6008,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>34</v>
       </c>
@@ -6026,7 +6025,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>34</v>
       </c>
@@ -6043,7 +6042,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>34</v>
       </c>
@@ -6060,7 +6059,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>34</v>
       </c>
@@ -6077,7 +6076,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>34</v>
       </c>
@@ -6094,7 +6093,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>34</v>
       </c>
@@ -6111,7 +6110,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>34</v>
       </c>
@@ -6128,7 +6127,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>34</v>
       </c>
@@ -6145,7 +6144,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>34</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>34</v>
       </c>
@@ -6179,7 +6178,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>34</v>
       </c>
@@ -6196,7 +6195,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>34</v>
       </c>
@@ -6213,7 +6212,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>34</v>
       </c>
@@ -6230,7 +6229,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>34</v>
       </c>
@@ -6247,7 +6246,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>34</v>
       </c>
@@ -6264,7 +6263,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>34</v>
       </c>
@@ -6281,7 +6280,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>34</v>
       </c>
@@ -6298,7 +6297,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>34</v>
       </c>
@@ -6315,7 +6314,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>34</v>
       </c>
@@ -6332,7 +6331,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>34</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>34</v>
       </c>
@@ -6366,7 +6365,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>34</v>
       </c>
@@ -6383,7 +6382,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>34</v>
       </c>
@@ -6400,7 +6399,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>34</v>
       </c>
@@ -6417,7 +6416,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>34</v>
       </c>
@@ -6434,7 +6433,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>34</v>
       </c>
@@ -6451,7 +6450,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>34</v>
       </c>
@@ -6468,7 +6467,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>34</v>
       </c>
@@ -6485,7 +6484,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>34</v>
       </c>
@@ -6502,7 +6501,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>34</v>
       </c>
@@ -6519,7 +6518,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>34</v>
       </c>
@@ -6536,7 +6535,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>34</v>
       </c>
@@ -6553,7 +6552,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>34</v>
       </c>
@@ -6570,7 +6569,7 @@
       <c r="F177" s="10"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>34</v>
       </c>
@@ -6587,7 +6586,7 @@
       <c r="F178" s="10"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>34</v>
       </c>
@@ -6604,7 +6603,7 @@
       <c r="F179" s="10"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>34</v>
       </c>
@@ -6621,7 +6620,7 @@
       <c r="F180" s="10"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>34</v>
       </c>
@@ -6638,7 +6637,7 @@
       <c r="F181" s="10"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>34</v>
       </c>
@@ -6655,7 +6654,7 @@
       <c r="F182" s="10"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>34</v>
       </c>
@@ -6672,7 +6671,7 @@
       <c r="F183" s="10"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>34</v>
       </c>
@@ -6689,7 +6688,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>34</v>
       </c>
@@ -6706,7 +6705,7 @@
       <c r="F185" s="10"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>34</v>
       </c>
@@ -6723,7 +6722,7 @@
       <c r="F186" s="10"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
@@ -6740,7 +6739,7 @@
       <c r="F187" s="10"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>34</v>
       </c>
@@ -6757,7 +6756,7 @@
       <c r="F188" s="10"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>34</v>
       </c>
@@ -6774,7 +6773,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>34</v>
       </c>
@@ -6791,7 +6790,7 @@
       <c r="F190" s="10"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>34</v>
       </c>
@@ -6808,7 +6807,7 @@
       <c r="F191" s="10"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>34</v>
       </c>
@@ -6825,7 +6824,7 @@
       <c r="F192" s="10"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>34</v>
       </c>
@@ -6842,7 +6841,7 @@
       <c r="F193" s="10"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>34</v>
       </c>
@@ -6859,7 +6858,7 @@
       <c r="F194" s="10"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>34</v>
       </c>
@@ -6876,7 +6875,7 @@
       <c r="F195" s="10"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>34</v>
       </c>
@@ -6893,7 +6892,7 @@
       <c r="F196" s="10"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>34</v>
       </c>
@@ -6910,7 +6909,7 @@
       <c r="F197" s="10"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>34</v>
       </c>
@@ -6927,7 +6926,7 @@
       <c r="F198" s="10"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>34</v>
       </c>
@@ -6944,7 +6943,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>269</v>
       </c>
@@ -6965,7 +6964,7 @@
       </c>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>258</v>
       </c>
@@ -6980,7 +6979,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>249</v>
       </c>
@@ -6997,7 +6996,7 @@
       <c r="F202" s="10"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>256</v>
       </c>
@@ -7018,7 +7017,7 @@
       </c>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>256</v>
       </c>
@@ -7039,7 +7038,7 @@
       </c>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>254</v>
       </c>
@@ -7060,7 +7059,7 @@
       </c>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>32</v>
       </c>
@@ -7081,7 +7080,7 @@
       </c>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>269</v>
       </c>
@@ -7102,7 +7101,7 @@
       </c>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
         <v>197</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
         <v>198</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
         <v>199</v>
       </c>
@@ -7163,13 +7162,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H210">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="isAttachedToRef"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H210"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
